--- a/QueState_doc.xlsx
+++ b/QueState_doc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stage\web-generator-toolkit2\dev0\add\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stage\QueState\dev1\add\QueState_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB3204-BD9F-4F0B-A2C0-2B6C3395DE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0501A2-DC5B-4AE8-9DBB-55362CC4C8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20295" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20505" windowHeight="12435" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QueState_doc" sheetId="28" r:id="rId1"/>
+    <sheet name="QueState_doc" sheetId="29" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QueState_doc!$A$1:$AD$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QueState_doc!$A$1:$Y$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -444,19 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -483,34 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -540,18 +499,35 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -567,9 +543,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,17 +554,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,18 +588,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -643,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,12 +739,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$40:$AB$40</c:f>
+              <c:f>QueState_doc!$C$40:$W$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.18106034455445E-2</c:v>
                 </c:pt>
@@ -834,21 +879,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.80014774718888E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.3957606895758201E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.04056710907445E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.42904883161323E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.5196748894814304E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3935161329591302E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000000-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -903,10 +933,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>QueState_doc!$C$39:$AB$39</c:f>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -969,31 +999,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$41:$AB$41</c:f>
+              <c:f>QueState_doc!$C$41:$W$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.6606009016076899E-3</c:v>
                 </c:pt>
@@ -1056,21 +1071,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.86594491185505E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.3559223005468401E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.8530523245321999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.1598969993203897E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.2028674315713697E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.7807568339426502E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1078,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000001-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1119,10 +1119,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>QueState_doc!$C$39:$AB$39</c:f>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1185,31 +1185,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$42:$AB$42</c:f>
+              <c:f>QueState_doc!$C$42:$W$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.45008210536957E-3</c:v>
                 </c:pt>
@@ -1272,21 +1257,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.21987944123282E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1264,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000002-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,10 +1305,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>QueState_doc!$C$39:$AB$39</c:f>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1401,31 +1371,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$43:$AB$43</c:f>
+              <c:f>QueState_doc!$C$43:$W$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.1538531357810399E-3</c:v>
                 </c:pt>
@@ -1487,21 +1442,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1510,7 +1450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000003-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1549,89 +1489,146 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$44:$AB$44</c:f>
+              <c:f>QueState_doc!$C$44:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.6632778536855601E-3</c:v>
+                  <c:v>2.6738651820996302E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.54825485422275E-2</c:v>
+                  <c:v>1.55440963172284E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5002685136796998E-2</c:v>
+                  <c:v>4.51815843103845E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7205353132398897E-2</c:v>
+                  <c:v>8.7552020571472197E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12673866445685</c:v>
+                  <c:v>0.12724248866787199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14735507389248501</c:v>
+                  <c:v>0.14794085451564501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14277093928488499</c:v>
+                  <c:v>0.14333849659780401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.118568069624575</c:v>
+                  <c:v>0.119039413270076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6159612063210406E-2</c:v>
+                  <c:v>8.6502122367826201E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2609425744958494E-2</c:v>
+                  <c:v>6.2858316994236496E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5496260930674E-2</c:v>
+                  <c:v>4.5677122216107903E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3060673118195001E-2</c:v>
+                  <c:v>3.31920992115739E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4024130437743801E-2</c:v>
+                  <c:v>2.4119633563133E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7457564799916E-2</c:v>
+                  <c:v>1.7526963857018098E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.26858522323227E-2</c:v>
+                  <c:v>1.27362823005224E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2184018048784601E-3</c:v>
+                  <c:v>9.2550477174429494E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6987168287886501E-3</c:v>
+                  <c:v>6.7253462377033502E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8677425981311804E-3</c:v>
+                  <c:v>4.8870933352126496E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5372323696127501E-3</c:v>
+                  <c:v>3.55129392940162E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5703932745827301E-3</c:v>
+                  <c:v>2.58061135893081E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8678223242493499E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.35728655589896E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.8629659304689393E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.1671008986869003E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.2081022741113996E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.7845608260620302E-4</c:v>
+                  <c:v>1.87524747830851E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000004-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1673,12 +1670,84 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$45:$AB$45</c:f>
+              <c:f>QueState_doc!$C$45:$W$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.4754365324236201E-3</c:v>
                 </c:pt>
@@ -1741,21 +1810,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.17246639773105E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8974977542163301E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.2900422803116396E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.5236741991349902E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.3339181099469501E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5371451629564301E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000005-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1797,12 +1851,84 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$46:$AB$46</c:f>
+              <c:f>QueState_doc!$C$46:$W$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.9874254131797601E-3</c:v>
                 </c:pt>
@@ -1865,21 +1991,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.3861179378856001E-6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.6053918070617804E-7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7454277451193999E-7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4116394509487402E-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0685989487165E-8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.4848530276750999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,7 +1998,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000006-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1928,12 +2039,84 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$47:$AB$47</c:f>
+              <c:f>QueState_doc!$C$47:$W$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.7408026815133098E-3</c:v>
                 </c:pt>
@@ -1996,21 +2179,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.47843464117158E-6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7936907737328401E-7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.2405722401748003E-8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1409061065628E-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.7267891897511798E-9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.9619757637593408E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2186,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000007-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2057,10 +2225,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>QueState_doc!$C$39:$AB$39</c:f>
+              <c:f>QueState_doc!$C$39:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2123,31 +2291,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>QueState_doc!$C$48:$AB$48</c:f>
+              <c:f>QueState_doc!$C$48:$W$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.07456347916545E-2</c:v>
                 </c:pt>
@@ -2210,21 +2363,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.73063627724643E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9030000630437501E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.8624099957429596E-6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.67538645948171E-6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.44176156357369E-7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0924382796981901E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7F30-4068-9E8D-8C7B42F64BFA}"/>
+              <c16:uniqueId val="{00000008-B200-4ED7-90BD-BCF98E710943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2311,7 +2449,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2336,6 +2474,7 @@
         <c:axId val="121543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2398,7 +2537,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2413,6 +2552,7 @@
         <c:crossAx val="121541760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2518,7 +2658,7 @@
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2528,7 +2668,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854489E0-80D5-4882-841A-ECC13E9988DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C831B82-A956-40B1-B6E7-F524C44D2360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,29 +3326,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CCCA24-B1C6-4E62-8DBD-63DD9500F1E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE81CF-BD67-4956-9045-134893FE4201}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A20:AM49"/>
+  <dimension ref="A20:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="29" width="6.7109375" customWidth="1"/>
-    <col min="30" max="30" width="1.7109375" customWidth="1"/>
-    <col min="40" max="40" width="1.7109375" customWidth="1"/>
-    <col min="42" max="42" width="10" customWidth="1"/>
+    <col min="7" max="24" width="6.7109375" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" customWidth="1"/>
+    <col min="35" max="35" width="1.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -3243,13 +3383,8 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -3284,25 +3419,20 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3322,23 +3452,18 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="53"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3358,33 +3483,28 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="1"/>
@@ -3406,33 +3526,28 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>5.8124794679767202</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>3.65316236026948</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>13.3455952304897</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>33</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <v>171699</v>
       </c>
       <c r="I25" s="1"/>
@@ -3454,21 +3569,16 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3488,30 +3598,25 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="42" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3528,54 +3633,49 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="34"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -3589,56 +3689,51 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="37">
         <v>8</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="46">
-        <v>25</v>
-      </c>
-      <c r="G29" s="47">
+      <c r="F29" s="39">
+        <v>20</v>
+      </c>
+      <c r="G29" s="40">
         <v>77.55</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="41">
         <f>G29/I29</f>
         <v>13.341982612971631</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="36">
         <f>C$25</f>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="34"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -3652,56 +3747,51 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="37">
         <v>8</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="40">
         <v>77.55</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="41">
         <f t="shared" ref="H30:H36" si="0">G30/I30</f>
         <v>13.341982612971631</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="36">
         <f t="shared" ref="I30:I36" si="1">C$25</f>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="34"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -3715,56 +3805,51 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="37">
         <v>8</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="39">
         <v>200</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="40">
         <v>77.55</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="34"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -3778,56 +3863,51 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="37">
         <v>8</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="46">
-        <v>25</v>
-      </c>
-      <c r="F32" s="45" t="s">
+      <c r="E32" s="39">
+        <v>20</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="40">
         <v>77.55</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="34"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -3841,56 +3921,51 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="37">
         <v>8</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="39">
         <v>200</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="40">
         <v>77.55</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="34"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -3904,56 +3979,51 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="37">
         <v>8</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="46">
-        <v>25</v>
-      </c>
-      <c r="G34" s="47">
+      <c r="F34" s="39">
+        <v>20</v>
+      </c>
+      <c r="G34" s="40">
         <v>77.55</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="34"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -3967,56 +4037,51 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="37">
         <v>8</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="39">
         <v>200</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="40">
         <v>77.55</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="34"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="27"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -4030,58 +4095,53 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="37">
         <v>8</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="46">
-        <v>25</v>
-      </c>
-      <c r="G36" s="47">
+      <c r="F36" s="39">
+        <v>20</v>
+      </c>
+      <c r="G36" s="40">
         <v>77.55</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="41">
         <f t="shared" si="0"/>
         <v>13.341982612971631</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="36">
         <f t="shared" si="1"/>
         <v>5.8124794679767202</v>
       </c>
-      <c r="J36" s="43">
+      <c r="J36" s="36">
         <f>E25</f>
         <v>13.3455952304897</v>
       </c>
-      <c r="K36" s="43">
+      <c r="K36" s="36">
         <f>SQRT(J36)</f>
         <v>3.6531623602694832</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="34"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -4095,13 +4155,8 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4136,156 +4191,131 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
     </row>
-    <row r="38" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="60"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="11"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="11"/>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="47">
         <v>0</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="47">
         <v>1</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="47">
         <v>2</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="47">
         <v>3</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="47">
         <v>4</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="47">
         <v>5</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="47">
         <v>6</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="47">
         <v>7</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="47">
         <v>8</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="47">
         <v>9</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="47">
         <v>10</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="47">
         <v>11</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O39" s="47">
         <v>12</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="47">
         <v>13</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="47">
         <v>14</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R39" s="47">
         <v>15</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S39" s="47">
         <v>16</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T39" s="47">
         <v>17</v>
       </c>
-      <c r="U39" s="23">
+      <c r="U39" s="47">
         <v>18</v>
       </c>
-      <c r="V39" s="23">
+      <c r="V39" s="47">
         <v>19</v>
       </c>
-      <c r="W39" s="23">
+      <c r="W39" s="47">
         <v>20</v>
       </c>
-      <c r="X39" s="23">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="23">
-        <v>22</v>
-      </c>
-      <c r="Z39" s="23">
-        <v>23</v>
-      </c>
-      <c r="AA39" s="23">
-        <v>24</v>
-      </c>
-      <c r="AB39" s="24">
-        <v>25</v>
-      </c>
-      <c r="AC39" s="30" t="s">
+      <c r="X39" s="48" t="s">
         <v>2</v>
       </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="9"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="4">
@@ -4351,38 +4381,23 @@
       <c r="W40" s="4">
         <v>1.80014774718888E-3</v>
       </c>
-      <c r="X40" s="4">
-        <v>1.3957606895758201E-3</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>1.04056710907445E-3</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>7.42904883161323E-4</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>5.5196748894814304E-4</v>
-      </c>
-      <c r="AB40" s="5">
-        <v>3.3935161329591302E-4</v>
-      </c>
-      <c r="AC40" s="5">
-        <f>SUM(C40:AB40)</f>
-        <v>0.9993771605525017</v>
-      </c>
+      <c r="X40" s="5">
+        <f t="shared" ref="X40:X48" si="2">SUM(C40:W40)</f>
+        <v>0.99530660876844612</v>
+      </c>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
       <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="4">
@@ -4448,133 +4463,103 @@
       <c r="W41" s="4">
         <v>1.86594491185505E-3</v>
       </c>
-      <c r="X41" s="4">
-        <v>1.3559223005468401E-3</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>9.8530523245321999E-4</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>7.1598969993203897E-4</v>
-      </c>
-      <c r="AA41" s="4">
-        <v>5.2028674315713697E-4</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>3.7807568339426502E-4</v>
-      </c>
-      <c r="AC41" s="5">
-        <f>SUM(C41:AB41)</f>
-        <v>0.99899486564116569</v>
-      </c>
+      <c r="X41" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99503928598168212</v>
+      </c>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
       <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="22">
         <v>3.45008210536957E-3</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="22">
         <v>2.0056511789460999E-2</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="22">
         <v>5.8297694500476102E-2</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="22">
         <v>0.11296817112723501</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="22">
         <v>0.16418069098420199</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="22">
         <v>0.190887744914916</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="22">
         <v>0.18494933306036601</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="22">
         <v>0.15359628163237801</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="22">
         <v>0.11161348988559699</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="22">
         <v>0</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M42" s="22">
         <v>0</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="22">
         <v>0</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O42" s="22">
         <v>0</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="22">
         <v>0</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="22">
         <v>0</v>
       </c>
-      <c r="R42" s="25">
+      <c r="R42" s="22">
         <v>0</v>
       </c>
-      <c r="S42" s="25">
+      <c r="S42" s="22">
         <v>0</v>
       </c>
-      <c r="T42" s="25">
+      <c r="T42" s="22">
         <v>0</v>
       </c>
-      <c r="U42" s="25">
+      <c r="U42" s="22">
         <v>0</v>
       </c>
-      <c r="V42" s="25">
+      <c r="V42" s="22">
         <v>0</v>
       </c>
-      <c r="W42" s="25">
+      <c r="W42" s="22">
         <v>0</v>
       </c>
-      <c r="X42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="26">
-        <v>1.21987944123282E-9</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" ref="AC42:AC48" si="2">SUM(C42:AB42)</f>
-        <v>1.0000000012198802</v>
-      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
       <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>19</v>
@@ -4642,133 +4627,103 @@
       <c r="W43" s="4">
         <v>0</v>
       </c>
-      <c r="X43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="5">
+      <c r="X43" s="5">
         <f t="shared" si="2"/>
         <v>1.0000000000000004</v>
       </c>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="28">
-        <v>2.6632778536855601E-3</v>
-      </c>
-      <c r="D44" s="28">
-        <v>1.54825485422275E-2</v>
-      </c>
-      <c r="E44" s="28">
-        <v>4.5002685136796998E-2</v>
-      </c>
-      <c r="F44" s="28">
-        <v>8.7205353132398897E-2</v>
-      </c>
-      <c r="G44" s="28">
-        <v>0.12673866445685</v>
-      </c>
-      <c r="H44" s="28">
-        <v>0.14735507389248501</v>
-      </c>
-      <c r="I44" s="28">
-        <v>0.14277093928488499</v>
-      </c>
-      <c r="J44" s="28">
-        <v>0.118568069624575</v>
-      </c>
-      <c r="K44" s="28">
-        <v>8.6159612063210406E-2</v>
-      </c>
-      <c r="L44" s="28">
-        <v>6.2609425744958494E-2</v>
-      </c>
-      <c r="M44" s="28">
-        <v>4.5496260930674E-2</v>
-      </c>
-      <c r="N44" s="28">
-        <v>3.3060673118195001E-2</v>
-      </c>
-      <c r="O44" s="28">
-        <v>2.4024130437743801E-2</v>
-      </c>
-      <c r="P44" s="28">
-        <v>1.7457564799916E-2</v>
-      </c>
-      <c r="Q44" s="28">
-        <v>1.26858522323227E-2</v>
-      </c>
-      <c r="R44" s="28">
-        <v>9.2184018048784601E-3</v>
-      </c>
-      <c r="S44" s="28">
-        <v>6.6987168287886501E-3</v>
-      </c>
-      <c r="T44" s="28">
-        <v>4.8677425981311804E-3</v>
-      </c>
-      <c r="U44" s="28">
-        <v>3.5372323696127501E-3</v>
-      </c>
-      <c r="V44" s="28">
-        <v>2.5703932745827301E-3</v>
-      </c>
-      <c r="W44" s="28">
-        <v>1.8678223242493499E-3</v>
-      </c>
-      <c r="X44" s="28">
-        <v>1.35728655589896E-3</v>
-      </c>
-      <c r="Y44" s="28">
-        <v>9.8629659304689393E-4</v>
-      </c>
-      <c r="Z44" s="28">
-        <v>7.1671008986869003E-4</v>
-      </c>
-      <c r="AA44" s="28">
-        <v>5.2081022741113996E-4</v>
-      </c>
-      <c r="AB44" s="29">
-        <v>3.7845608260620302E-4</v>
-      </c>
-      <c r="AC44" s="5">
+      <c r="C44" s="24">
+        <v>2.6738651820996302E-3</v>
+      </c>
+      <c r="D44" s="24">
+        <v>1.55440963172284E-2</v>
+      </c>
+      <c r="E44" s="24">
+        <v>4.51815843103845E-2</v>
+      </c>
+      <c r="F44" s="24">
+        <v>8.7552020571472197E-2</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.12724248866787199</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.14794085451564501</v>
+      </c>
+      <c r="I44" s="24">
+        <v>0.14333849659780401</v>
+      </c>
+      <c r="J44" s="24">
+        <v>0.119039413270076</v>
+      </c>
+      <c r="K44" s="24">
+        <v>8.6502122367826201E-2</v>
+      </c>
+      <c r="L44" s="24">
+        <v>6.2858316994236496E-2</v>
+      </c>
+      <c r="M44" s="24">
+        <v>4.5677122216107903E-2</v>
+      </c>
+      <c r="N44" s="24">
+        <v>3.31920992115739E-2</v>
+      </c>
+      <c r="O44" s="24">
+        <v>2.4119633563133E-2</v>
+      </c>
+      <c r="P44" s="24">
+        <v>1.7526963857018098E-2</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>1.27362823005224E-2</v>
+      </c>
+      <c r="R44" s="24">
+        <v>9.2550477174429494E-3</v>
+      </c>
+      <c r="S44" s="24">
+        <v>6.7253462377033502E-3</v>
+      </c>
+      <c r="T44" s="24">
+        <v>4.8870933352126496E-3</v>
+      </c>
+      <c r="U44" s="24">
+        <v>3.55129392940162E-3</v>
+      </c>
+      <c r="V44" s="24">
+        <v>2.58061135893081E-3</v>
+      </c>
+      <c r="W44" s="24">
+        <v>1.87524747830851E-3</v>
+      </c>
+      <c r="X44" s="5">
         <f t="shared" si="2"/>
         <v>0.99999999999999956</v>
       </c>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="10"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
         <v>21</v>
@@ -4836,36 +4791,21 @@
       <c r="W45" s="4">
         <v>1.17246639773105E-3</v>
       </c>
-      <c r="X45" s="4">
-        <v>7.8974977542163301E-4</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>5.2900422803116396E-4</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>3.5236741991349902E-4</v>
-      </c>
-      <c r="AA45" s="4">
-        <v>2.3339181099469501E-4</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>1.5371451629564301E-4</v>
-      </c>
-      <c r="AC45" s="5">
+      <c r="X45" s="5">
         <f t="shared" si="2"/>
-        <v>0.9997168216636696</v>
-      </c>
+        <v>0.99765859391301293</v>
+      </c>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
       <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
         <v>22</v>
@@ -4933,36 +4873,21 @@
       <c r="W46" s="4">
         <v>2.3861179378856001E-6</v>
       </c>
-      <c r="X46" s="4">
-        <v>6.6053918070617804E-7</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>1.7454277451193999E-7</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>4.4116394509487402E-8</v>
-      </c>
-      <c r="AA46" s="4">
-        <v>1.0685989487165E-8</v>
-      </c>
-      <c r="AB46" s="5">
-        <v>2.4848530276750999E-9</v>
-      </c>
-      <c r="AC46" s="5">
+      <c r="X46" s="5">
         <f t="shared" si="2"/>
-        <v>0.99999999929378758</v>
-      </c>
+        <v>0.99999910692459526</v>
+      </c>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
       <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
         <v>23</v>
@@ -5030,38 +4955,23 @@
       <c r="W47" s="4">
         <v>1.47843464117158E-6</v>
       </c>
-      <c r="X47" s="4">
-        <v>3.7936907737328401E-7</v>
-      </c>
-      <c r="Y47" s="4">
-        <v>9.2405722401748003E-8</v>
-      </c>
-      <c r="Z47" s="4">
-        <v>2.1409061065628E-8</v>
-      </c>
-      <c r="AA47" s="4">
-        <v>4.7267891897511798E-9</v>
-      </c>
-      <c r="AB47" s="5">
-        <v>9.9619757637593408E-10</v>
-      </c>
-      <c r="AC47" s="5">
+      <c r="X47" s="5">
         <f t="shared" si="2"/>
-        <v>0.99999999975185749</v>
-      </c>
+        <v>0.99999950084500988</v>
+      </c>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
       <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="10"/>
-      <c r="AL47" s="10"/>
     </row>
-    <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="6">
@@ -5124,45 +5034,30 @@
       <c r="V48" s="6">
         <v>1.6009151491194201E-4</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="49">
         <v>5.73063627724643E-5</v>
       </c>
-      <c r="X48" s="6">
-        <v>1.9030000630437501E-5</v>
-      </c>
-      <c r="Y48" s="6">
-        <v>5.8624099957429596E-6</v>
-      </c>
-      <c r="Z48" s="6">
-        <v>1.67538645948171E-6</v>
-      </c>
-      <c r="AA48" s="6">
-        <v>4.44176156357369E-7</v>
-      </c>
-      <c r="AB48" s="7">
-        <v>1.0924382796981901E-7</v>
-      </c>
-      <c r="AC48" s="31">
+      <c r="X48" s="7">
         <f t="shared" si="2"/>
-        <v>0.95864003362536598</v>
-      </c>
+        <v>0.95861291240829594</v>
+      </c>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C38:AC38"/>
+    <mergeCell ref="C38:X38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
